--- a/full_data/fourth_part_children_data.xlsx
+++ b/full_data/fourth_part_children_data.xlsx
@@ -1,21 +1,389 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11213"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gracegao/Library/Containers/com.microsoft.Excel/Data/Desktop/BassConnections/full_data/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C22587B1-B02A-B54D-80F7-031D8B00D0CC}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="240" yWindow="460" windowWidth="16100" windowHeight="9660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="119">
+  <si>
+    <t>value</t>
+  </si>
+  <si>
+    <t>rownum</t>
+  </si>
+  <si>
+    <t>http://www.vondel.humanities.uva.nl/ecartico/persons/4722</t>
+  </si>
+  <si>
+    <t>http://www.vondel.humanities.uva.nl/ecartico/persons/47221</t>
+  </si>
+  <si>
+    <t>http://www.vondel.humanities.uva.nl/ecartico/persons/47224</t>
+  </si>
+  <si>
+    <t>http://www.vondel.humanities.uva.nl/ecartico/persons/47231</t>
+  </si>
+  <si>
+    <t>http://www.vondel.humanities.uva.nl/ecartico/persons/47232</t>
+  </si>
+  <si>
+    <t>http://www.vondel.humanities.uva.nl/ecartico/persons/47236</t>
+  </si>
+  <si>
+    <t>http://www.vondel.humanities.uva.nl/ecartico/persons/4724</t>
+  </si>
+  <si>
+    <t>http://www.vondel.humanities.uva.nl/ecartico/persons/47249</t>
+  </si>
+  <si>
+    <t>http://www.vondel.humanities.uva.nl/ecartico/persons/47251</t>
+  </si>
+  <si>
+    <t>http://www.vondel.humanities.uva.nl/ecartico/persons/47254</t>
+  </si>
+  <si>
+    <t>http://www.vondel.humanities.uva.nl/ecartico/persons/47255</t>
+  </si>
+  <si>
+    <t>http://www.vondel.humanities.uva.nl/ecartico/persons/47257</t>
+  </si>
+  <si>
+    <t>http://www.vondel.humanities.uva.nl/ecartico/persons/47258</t>
+  </si>
+  <si>
+    <t>http://www.vondel.humanities.uva.nl/ecartico/persons/47259</t>
+  </si>
+  <si>
+    <t>http://www.vondel.humanities.uva.nl/ecartico/persons/47261</t>
+  </si>
+  <si>
+    <t>http://www.vondel.humanities.uva.nl/ecartico/persons/4727</t>
+  </si>
+  <si>
+    <t>http://www.vondel.humanities.uva.nl/ecartico/persons/47277</t>
+  </si>
+  <si>
+    <t>http://www.vondel.humanities.uva.nl/ecartico/persons/47282</t>
+  </si>
+  <si>
+    <t>http://www.vondel.humanities.uva.nl/ecartico/persons/47287</t>
+  </si>
+  <si>
+    <t>http://www.vondel.humanities.uva.nl/ecartico/persons/47296</t>
+  </si>
+  <si>
+    <t>http://www.vondel.humanities.uva.nl/ecartico/persons/47305</t>
+  </si>
+  <si>
+    <t>http://www.vondel.humanities.uva.nl/ecartico/persons/47308</t>
+  </si>
+  <si>
+    <t>http://www.vondel.humanities.uva.nl/ecartico/persons/47309</t>
+  </si>
+  <si>
+    <t>http://www.vondel.humanities.uva.nl/ecartico/persons/4731</t>
+  </si>
+  <si>
+    <t>http://www.vondel.humanities.uva.nl/ecartico/persons/47312</t>
+  </si>
+  <si>
+    <t>http://www.vondel.humanities.uva.nl/ecartico/persons/47313</t>
+  </si>
+  <si>
+    <t>http://www.vondel.humanities.uva.nl/ecartico/persons/47336</t>
+  </si>
+  <si>
+    <t>http://www.vondel.humanities.uva.nl/ecartico/persons/47371</t>
+  </si>
+  <si>
+    <t>http://www.vondel.humanities.uva.nl/ecartico/persons/47380</t>
+  </si>
+  <si>
+    <t>http://www.vondel.humanities.uva.nl/ecartico/persons/47383</t>
+  </si>
+  <si>
+    <t>http://www.vondel.humanities.uva.nl/ecartico/persons/47388</t>
+  </si>
+  <si>
+    <t>http://www.vondel.humanities.uva.nl/ecartico/persons/47394</t>
+  </si>
+  <si>
+    <t>http://www.vondel.humanities.uva.nl/ecartico/persons/47395</t>
+  </si>
+  <si>
+    <t>http://www.vondel.humanities.uva.nl/ecartico/persons/47399</t>
+  </si>
+  <si>
+    <t>http://www.vondel.humanities.uva.nl/ecartico/persons/4740</t>
+  </si>
+  <si>
+    <t>http://www.vondel.humanities.uva.nl/ecartico/persons/47412</t>
+  </si>
+  <si>
+    <t>http://www.vondel.humanities.uva.nl/ecartico/persons/47429</t>
+  </si>
+  <si>
+    <t>http://www.vondel.humanities.uva.nl/ecartico/persons/4743</t>
+  </si>
+  <si>
+    <t>http://www.vondel.humanities.uva.nl/ecartico/persons/47430</t>
+  </si>
+  <si>
+    <t>http://www.vondel.humanities.uva.nl/ecartico/persons/47431</t>
+  </si>
+  <si>
+    <t>http://www.vondel.humanities.uva.nl/ecartico/persons/4744</t>
+  </si>
+  <si>
+    <t>http://www.vondel.humanities.uva.nl/ecartico/persons/47452</t>
+  </si>
+  <si>
+    <t>http://www.vondel.humanities.uva.nl/ecartico/persons/47456</t>
+  </si>
+  <si>
+    <t>http://www.vondel.humanities.uva.nl/ecartico/persons/47463</t>
+  </si>
+  <si>
+    <t>http://www.vondel.humanities.uva.nl/ecartico/persons/47466</t>
+  </si>
+  <si>
+    <t>http://www.vondel.humanities.uva.nl/ecartico/persons/47469</t>
+  </si>
+  <si>
+    <t>http://www.vondel.humanities.uva.nl/ecartico/persons/47472</t>
+  </si>
+  <si>
+    <t>http://www.vondel.humanities.uva.nl/ecartico/persons/4749</t>
+  </si>
+  <si>
+    <t>http://www.vondel.humanities.uva.nl/ecartico/persons/47496</t>
+  </si>
+  <si>
+    <t>http://www.vondel.humanities.uva.nl/ecartico/persons/47504</t>
+  </si>
+  <si>
+    <t>http://www.vondel.humanities.uva.nl/ecartico/persons/4751</t>
+  </si>
+  <si>
+    <t>http://www.vondel.humanities.uva.nl/ecartico/persons/47511</t>
+  </si>
+  <si>
+    <t>http://www.vondel.humanities.uva.nl/ecartico/persons/47513</t>
+  </si>
+  <si>
+    <t>http://www.vondel.humanities.uva.nl/ecartico/persons/47514</t>
+  </si>
+  <si>
+    <t>http://www.vondel.humanities.uva.nl/ecartico/persons/47526</t>
+  </si>
+  <si>
+    <t>http://www.vondel.humanities.uva.nl/ecartico/persons/4753</t>
+  </si>
+  <si>
+    <t>http://www.vondel.humanities.uva.nl/ecartico/persons/47530</t>
+  </si>
+  <si>
+    <t>http://www.vondel.humanities.uva.nl/ecartico/persons/47537</t>
+  </si>
+  <si>
+    <t>http://www.vondel.humanities.uva.nl/ecartico/persons/47538</t>
+  </si>
+  <si>
+    <t>http://www.vondel.humanities.uva.nl/ecartico/persons/47544</t>
+  </si>
+  <si>
+    <t>http://www.vondel.humanities.uva.nl/ecartico/persons/47549</t>
+  </si>
+  <si>
+    <t>http://www.vondel.humanities.uva.nl/ecartico/persons/4755</t>
+  </si>
+  <si>
+    <t>http://www.vondel.humanities.uva.nl/ecartico/persons/47550</t>
+  </si>
+  <si>
+    <t>http://www.vondel.humanities.uva.nl/ecartico/persons/47553</t>
+  </si>
+  <si>
+    <t>http://www.vondel.humanities.uva.nl/ecartico/persons/47568</t>
+  </si>
+  <si>
+    <t>http://www.vondel.humanities.uva.nl/ecartico/persons/4757</t>
+  </si>
+  <si>
+    <t>http://www.vondel.humanities.uva.nl/ecartico/persons/47577</t>
+  </si>
+  <si>
+    <t>http://www.vondel.humanities.uva.nl/ecartico/persons/4758</t>
+  </si>
+  <si>
+    <t>http://www.vondel.humanities.uva.nl/ecartico/persons/47589</t>
+  </si>
+  <si>
+    <t>http://www.vondel.humanities.uva.nl/ecartico/persons/4760</t>
+  </si>
+  <si>
+    <t>http://www.vondel.humanities.uva.nl/ecartico/persons/47608</t>
+  </si>
+  <si>
+    <t>http://www.vondel.humanities.uva.nl/ecartico/persons/47609</t>
+  </si>
+  <si>
+    <t>http://www.vondel.humanities.uva.nl/ecartico/persons/4761</t>
+  </si>
+  <si>
+    <t>http://www.vondel.humanities.uva.nl/ecartico/persons/47614</t>
+  </si>
+  <si>
+    <t>http://www.vondel.humanities.uva.nl/ecartico/persons/4762</t>
+  </si>
+  <si>
+    <t>http://www.vondel.humanities.uva.nl/ecartico/persons/4763</t>
+  </si>
+  <si>
+    <t>http://www.vondel.humanities.uva.nl/ecartico/persons/4764</t>
+  </si>
+  <si>
+    <t>http://www.vondel.humanities.uva.nl/ecartico/persons/4765</t>
+  </si>
+  <si>
+    <t>http://www.vondel.humanities.uva.nl/ecartico/persons/47658</t>
+  </si>
+  <si>
+    <t>http://www.vondel.humanities.uva.nl/ecartico/persons/47664</t>
+  </si>
+  <si>
+    <t>http://www.vondel.humanities.uva.nl/ecartico/persons/47665</t>
+  </si>
+  <si>
+    <t>http://www.vondel.humanities.uva.nl/ecartico/persons/47667</t>
+  </si>
+  <si>
+    <t>http://www.vondel.humanities.uva.nl/ecartico/persons/47668</t>
+  </si>
+  <si>
+    <t>http://www.vondel.humanities.uva.nl/ecartico/persons/47673</t>
+  </si>
+  <si>
+    <t>http://www.vondel.humanities.uva.nl/ecartico/persons/47674</t>
+  </si>
+  <si>
+    <t>http://www.vondel.humanities.uva.nl/ecartico/persons/47675</t>
+  </si>
+  <si>
+    <t>http://www.vondel.humanities.uva.nl/ecartico/persons/47676</t>
+  </si>
+  <si>
+    <t>http://www.vondel.humanities.uva.nl/ecartico/persons/47679</t>
+  </si>
+  <si>
+    <t>http://www.vondel.humanities.uva.nl/ecartico/persons/47680</t>
+  </si>
+  <si>
+    <t>http://www.vondel.humanities.uva.nl/ecartico/persons/47684</t>
+  </si>
+  <si>
+    <t>http://www.vondel.humanities.uva.nl/ecartico/persons/47691</t>
+  </si>
+  <si>
+    <t>http://www.vondel.humanities.uva.nl/ecartico/persons/47696</t>
+  </si>
+  <si>
+    <t>http://www.vondel.humanities.uva.nl/ecartico/persons/477</t>
+  </si>
+  <si>
+    <t>http://www.vondel.humanities.uva.nl/ecartico/persons/47711</t>
+  </si>
+  <si>
+    <t>http://www.vondel.humanities.uva.nl/ecartico/persons/47718</t>
+  </si>
+  <si>
+    <t>http://www.vondel.humanities.uva.nl/ecartico/persons/47732</t>
+  </si>
+  <si>
+    <t>http://www.vondel.humanities.uva.nl/ecartico/persons/4774</t>
+  </si>
+  <si>
+    <t>http://www.vondel.humanities.uva.nl/ecartico/persons/47806</t>
+  </si>
+  <si>
+    <t>http://www.vondel.humanities.uva.nl/ecartico/persons/47815</t>
+  </si>
+  <si>
+    <t>http://www.vondel.humanities.uva.nl/ecartico/persons/47821</t>
+  </si>
+  <si>
+    <t>http://www.vondel.humanities.uva.nl/ecartico/persons/4783</t>
+  </si>
+  <si>
+    <t>http://www.vondel.humanities.uva.nl/ecartico/persons/4784</t>
+  </si>
+  <si>
+    <t>http://www.vondel.humanities.uva.nl/ecartico/persons/47859</t>
+  </si>
+  <si>
+    <t>http://www.vondel.humanities.uva.nl/ecartico/persons/47865</t>
+  </si>
+  <si>
+    <t>http://www.vondel.humanities.uva.nl/ecartico/persons/4787</t>
+  </si>
+  <si>
+    <t>http://www.vondel.humanities.uva.nl/ecartico/persons/47931</t>
+  </si>
+  <si>
+    <t>http://www.vondel.humanities.uva.nl/ecartico/persons/47967</t>
+  </si>
+  <si>
+    <t>http://www.vondel.humanities.uva.nl/ecartico/persons/48</t>
+  </si>
+  <si>
+    <t>http://www.vondel.humanities.uva.nl/ecartico/persons/48075</t>
+  </si>
+  <si>
+    <t>http://www.vondel.humanities.uva.nl/ecartico/persons/48153</t>
+  </si>
+  <si>
+    <t>http://www.vondel.humanities.uva.nl/ecartico/persons/48157</t>
+  </si>
+  <si>
+    <t>http://www.vondel.humanities.uva.nl/ecartico/persons/48167</t>
+  </si>
+  <si>
+    <t>http://www.vondel.humanities.uva.nl/ecartico/persons/48169</t>
+  </si>
+  <si>
+    <t>http://www.vondel.humanities.uva.nl/ecartico/persons/48179</t>
+  </si>
+  <si>
+    <t>http://www.vondel.humanities.uva.nl/ecartico/persons/482</t>
+  </si>
+  <si>
+    <t>http://www.vondel.humanities.uva.nl/ecartico/persons/48205</t>
+  </si>
+  <si>
+    <t>http://www.vondel.humanities.uva.nl/ecartico/persons/48213</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -63,6 +431,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -109,7 +485,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -141,9 +517,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -175,6 +569,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -350,1190 +762,957 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B118"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A111" workbookViewId="0">
+      <selection activeCell="A111" sqref="A111"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="8.83203125" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>value</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>rownum</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>http://www.vondel.humanities.uva.nl/ecartico/persons/4722</t>
-        </is>
+    <row r="1" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>2</v>
       </c>
       <c r="B2">
         <v>0</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>http://www.vondel.humanities.uva.nl/ecartico/persons/47221</t>
-        </is>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>3</v>
       </c>
       <c r="B3">
         <v>0</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>http://www.vondel.humanities.uva.nl/ecartico/persons/47224</t>
-        </is>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>4</v>
       </c>
       <c r="B4">
         <v>0</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>http://www.vondel.humanities.uva.nl/ecartico/persons/47231</t>
-        </is>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>5</v>
       </c>
       <c r="B5">
         <v>0</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>http://www.vondel.humanities.uva.nl/ecartico/persons/47232</t>
-        </is>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>6</v>
       </c>
       <c r="B6">
         <v>0</v>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>http://www.vondel.humanities.uva.nl/ecartico/persons/47236</t>
-        </is>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>7</v>
       </c>
       <c r="B7">
         <v>0</v>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>http://www.vondel.humanities.uva.nl/ecartico/persons/4724</t>
-        </is>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>8</v>
       </c>
       <c r="B8">
         <v>0</v>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>http://www.vondel.humanities.uva.nl/ecartico/persons/47249</t>
-        </is>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>9</v>
       </c>
       <c r="B9">
         <v>0</v>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>http://www.vondel.humanities.uva.nl/ecartico/persons/47251</t>
-        </is>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>10</v>
       </c>
       <c r="B10">
         <v>0</v>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>http://www.vondel.humanities.uva.nl/ecartico/persons/47254</t>
-        </is>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>11</v>
       </c>
       <c r="B11">
         <v>0</v>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>http://www.vondel.humanities.uva.nl/ecartico/persons/47255</t>
-        </is>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>12</v>
       </c>
       <c r="B12">
         <v>0</v>
       </c>
     </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>http://www.vondel.humanities.uva.nl/ecartico/persons/47257</t>
-        </is>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>13</v>
       </c>
       <c r="B13">
         <v>0</v>
       </c>
     </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>http://www.vondel.humanities.uva.nl/ecartico/persons/47258</t>
-        </is>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>14</v>
       </c>
       <c r="B14">
         <v>0</v>
       </c>
     </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>http://www.vondel.humanities.uva.nl/ecartico/persons/47259</t>
-        </is>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>15</v>
       </c>
       <c r="B15">
         <v>0</v>
       </c>
     </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>http://www.vondel.humanities.uva.nl/ecartico/persons/47261</t>
-        </is>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>16</v>
       </c>
       <c r="B16">
         <v>0</v>
       </c>
     </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>http://www.vondel.humanities.uva.nl/ecartico/persons/4727</t>
-        </is>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>17</v>
       </c>
       <c r="B17">
         <v>0</v>
       </c>
     </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>http://www.vondel.humanities.uva.nl/ecartico/persons/47277</t>
-        </is>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>18</v>
       </c>
       <c r="B18">
         <v>0</v>
       </c>
     </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>http://www.vondel.humanities.uva.nl/ecartico/persons/47282</t>
-        </is>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>19</v>
       </c>
       <c r="B19">
         <v>0</v>
       </c>
     </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>http://www.vondel.humanities.uva.nl/ecartico/persons/47287</t>
-        </is>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>20</v>
       </c>
       <c r="B20">
         <v>0</v>
       </c>
     </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>http://www.vondel.humanities.uva.nl/ecartico/persons/47296</t>
-        </is>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>21</v>
       </c>
       <c r="B21">
         <v>0</v>
       </c>
     </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>http://www.vondel.humanities.uva.nl/ecartico/persons/47305</t>
-        </is>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>22</v>
       </c>
       <c r="B22">
         <v>0</v>
       </c>
     </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>http://www.vondel.humanities.uva.nl/ecartico/persons/47308</t>
-        </is>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>23</v>
       </c>
       <c r="B23">
         <v>0</v>
       </c>
     </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>http://www.vondel.humanities.uva.nl/ecartico/persons/47309</t>
-        </is>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>24</v>
       </c>
       <c r="B24">
         <v>0</v>
       </c>
     </row>
-    <row r="25">
-      <c r="A25" t="inlineStr">
-        <is>
-          <t>http://www.vondel.humanities.uva.nl/ecartico/persons/4731</t>
-        </is>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>25</v>
       </c>
       <c r="B25">
         <v>0</v>
       </c>
     </row>
-    <row r="26">
-      <c r="A26" t="inlineStr">
-        <is>
-          <t>http://www.vondel.humanities.uva.nl/ecartico/persons/47312</t>
-        </is>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>26</v>
       </c>
       <c r="B26">
         <v>0</v>
       </c>
     </row>
-    <row r="27">
-      <c r="A27" t="inlineStr">
-        <is>
-          <t>http://www.vondel.humanities.uva.nl/ecartico/persons/47313</t>
-        </is>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>27</v>
       </c>
       <c r="B27">
         <v>0</v>
       </c>
     </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
-        <is>
-          <t>http://www.vondel.humanities.uva.nl/ecartico/persons/47336</t>
-        </is>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>28</v>
       </c>
       <c r="B28">
         <v>0</v>
       </c>
     </row>
-    <row r="29">
-      <c r="A29" t="inlineStr">
-        <is>
-          <t>http://www.vondel.humanities.uva.nl/ecartico/persons/47371</t>
-        </is>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>29</v>
       </c>
       <c r="B29">
         <v>0</v>
       </c>
     </row>
-    <row r="30">
-      <c r="A30" t="inlineStr">
-        <is>
-          <t>http://www.vondel.humanities.uva.nl/ecartico/persons/47380</t>
-        </is>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>30</v>
       </c>
       <c r="B30">
         <v>0</v>
       </c>
     </row>
-    <row r="31">
-      <c r="A31" t="inlineStr">
-        <is>
-          <t>http://www.vondel.humanities.uva.nl/ecartico/persons/47383</t>
-        </is>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>31</v>
       </c>
       <c r="B31">
         <v>0</v>
       </c>
     </row>
-    <row r="32">
-      <c r="A32" t="inlineStr">
-        <is>
-          <t>http://www.vondel.humanities.uva.nl/ecartico/persons/47388</t>
-        </is>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>32</v>
       </c>
       <c r="B32">
         <v>0</v>
       </c>
     </row>
-    <row r="33">
-      <c r="A33" t="inlineStr">
-        <is>
-          <t>http://www.vondel.humanities.uva.nl/ecartico/persons/47394</t>
-        </is>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>33</v>
       </c>
       <c r="B33">
         <v>0</v>
       </c>
     </row>
-    <row r="34">
-      <c r="A34" t="inlineStr">
-        <is>
-          <t>http://www.vondel.humanities.uva.nl/ecartico/persons/47395</t>
-        </is>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>34</v>
       </c>
       <c r="B34">
         <v>0</v>
       </c>
     </row>
-    <row r="35">
-      <c r="A35" t="inlineStr">
-        <is>
-          <t>http://www.vondel.humanities.uva.nl/ecartico/persons/47399</t>
-        </is>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>35</v>
       </c>
       <c r="B35">
         <v>0</v>
       </c>
     </row>
-    <row r="36">
-      <c r="A36" t="inlineStr">
-        <is>
-          <t>http://www.vondel.humanities.uva.nl/ecartico/persons/4740</t>
-        </is>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>36</v>
       </c>
       <c r="B36">
         <v>0</v>
       </c>
     </row>
-    <row r="37">
-      <c r="A37" t="inlineStr">
-        <is>
-          <t>http://www.vondel.humanities.uva.nl/ecartico/persons/47412</t>
-        </is>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>37</v>
       </c>
       <c r="B37">
         <v>0</v>
       </c>
     </row>
-    <row r="38">
-      <c r="A38" t="inlineStr">
-        <is>
-          <t>http://www.vondel.humanities.uva.nl/ecartico/persons/47429</t>
-        </is>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>38</v>
       </c>
       <c r="B38">
         <v>0</v>
       </c>
     </row>
-    <row r="39">
-      <c r="A39" t="inlineStr">
-        <is>
-          <t>http://www.vondel.humanities.uva.nl/ecartico/persons/4743</t>
-        </is>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>39</v>
       </c>
       <c r="B39">
         <v>0</v>
       </c>
     </row>
-    <row r="40">
-      <c r="A40" t="inlineStr">
-        <is>
-          <t>http://www.vondel.humanities.uva.nl/ecartico/persons/47430</t>
-        </is>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>40</v>
       </c>
       <c r="B40">
         <v>0</v>
       </c>
     </row>
-    <row r="41">
-      <c r="A41" t="inlineStr">
-        <is>
-          <t>http://www.vondel.humanities.uva.nl/ecartico/persons/47431</t>
-        </is>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>41</v>
       </c>
       <c r="B41">
         <v>0</v>
       </c>
     </row>
-    <row r="42">
-      <c r="A42" t="inlineStr">
-        <is>
-          <t>http://www.vondel.humanities.uva.nl/ecartico/persons/4744</t>
-        </is>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>42</v>
       </c>
       <c r="B42">
         <v>2</v>
       </c>
     </row>
-    <row r="43">
-      <c r="A43" t="inlineStr">
-        <is>
-          <t>http://www.vondel.humanities.uva.nl/ecartico/persons/47452</t>
-        </is>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>43</v>
       </c>
       <c r="B43">
         <v>0</v>
       </c>
     </row>
-    <row r="44">
-      <c r="A44" t="inlineStr">
-        <is>
-          <t>http://www.vondel.humanities.uva.nl/ecartico/persons/47456</t>
-        </is>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
+        <v>44</v>
       </c>
       <c r="B44">
         <v>0</v>
       </c>
     </row>
-    <row r="45">
-      <c r="A45" t="inlineStr">
-        <is>
-          <t>http://www.vondel.humanities.uva.nl/ecartico/persons/47463</t>
-        </is>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
+        <v>45</v>
       </c>
       <c r="B45">
         <v>0</v>
       </c>
     </row>
-    <row r="46">
-      <c r="A46" t="inlineStr">
-        <is>
-          <t>http://www.vondel.humanities.uva.nl/ecartico/persons/47466</t>
-        </is>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
+        <v>46</v>
       </c>
       <c r="B46">
         <v>0</v>
       </c>
     </row>
-    <row r="47">
-      <c r="A47" t="inlineStr">
-        <is>
-          <t>http://www.vondel.humanities.uva.nl/ecartico/persons/47469</t>
-        </is>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
+        <v>47</v>
       </c>
       <c r="B47">
         <v>0</v>
       </c>
     </row>
-    <row r="48">
-      <c r="A48" t="inlineStr">
-        <is>
-          <t>http://www.vondel.humanities.uva.nl/ecartico/persons/47472</t>
-        </is>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A48" t="s">
+        <v>48</v>
       </c>
       <c r="B48">
         <v>0</v>
       </c>
     </row>
-    <row r="49">
-      <c r="A49" t="inlineStr">
-        <is>
-          <t>http://www.vondel.humanities.uva.nl/ecartico/persons/4749</t>
-        </is>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A49" t="s">
+        <v>49</v>
       </c>
       <c r="B49">
         <v>1</v>
       </c>
     </row>
-    <row r="50">
-      <c r="A50" t="inlineStr">
-        <is>
-          <t>http://www.vondel.humanities.uva.nl/ecartico/persons/47496</t>
-        </is>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A50" t="s">
+        <v>50</v>
       </c>
       <c r="B50">
         <v>0</v>
       </c>
     </row>
-    <row r="51">
-      <c r="A51" t="inlineStr">
-        <is>
-          <t>http://www.vondel.humanities.uva.nl/ecartico/persons/47504</t>
-        </is>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A51" t="s">
+        <v>51</v>
       </c>
       <c r="B51">
         <v>0</v>
       </c>
     </row>
-    <row r="52">
-      <c r="A52" t="inlineStr">
-        <is>
-          <t>http://www.vondel.humanities.uva.nl/ecartico/persons/4751</t>
-        </is>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A52" t="s">
+        <v>52</v>
       </c>
       <c r="B52">
         <v>0</v>
       </c>
     </row>
-    <row r="53">
-      <c r="A53" t="inlineStr">
-        <is>
-          <t>http://www.vondel.humanities.uva.nl/ecartico/persons/47511</t>
-        </is>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A53" t="s">
+        <v>53</v>
       </c>
       <c r="B53">
         <v>0</v>
       </c>
     </row>
-    <row r="54">
-      <c r="A54" t="inlineStr">
-        <is>
-          <t>http://www.vondel.humanities.uva.nl/ecartico/persons/47513</t>
-        </is>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A54" t="s">
+        <v>54</v>
       </c>
       <c r="B54">
         <v>0</v>
       </c>
     </row>
-    <row r="55">
-      <c r="A55" t="inlineStr">
-        <is>
-          <t>http://www.vondel.humanities.uva.nl/ecartico/persons/47514</t>
-        </is>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A55" t="s">
+        <v>55</v>
       </c>
       <c r="B55">
         <v>0</v>
       </c>
     </row>
-    <row r="56">
-      <c r="A56" t="inlineStr">
-        <is>
-          <t>http://www.vondel.humanities.uva.nl/ecartico/persons/47526</t>
-        </is>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A56" t="s">
+        <v>56</v>
       </c>
       <c r="B56">
         <v>0</v>
       </c>
     </row>
-    <row r="57">
-      <c r="A57" t="inlineStr">
-        <is>
-          <t>http://www.vondel.humanities.uva.nl/ecartico/persons/4753</t>
-        </is>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A57" t="s">
+        <v>57</v>
       </c>
       <c r="B57">
         <v>1</v>
       </c>
     </row>
-    <row r="58">
-      <c r="A58" t="inlineStr">
-        <is>
-          <t>http://www.vondel.humanities.uva.nl/ecartico/persons/47530</t>
-        </is>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A58" t="s">
+        <v>58</v>
       </c>
       <c r="B58">
         <v>0</v>
       </c>
     </row>
-    <row r="59">
-      <c r="A59" t="inlineStr">
-        <is>
-          <t>http://www.vondel.humanities.uva.nl/ecartico/persons/47537</t>
-        </is>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A59" t="s">
+        <v>59</v>
       </c>
       <c r="B59">
         <v>0</v>
       </c>
     </row>
-    <row r="60">
-      <c r="A60" t="inlineStr">
-        <is>
-          <t>http://www.vondel.humanities.uva.nl/ecartico/persons/47538</t>
-        </is>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A60" t="s">
+        <v>60</v>
       </c>
       <c r="B60">
         <v>0</v>
       </c>
     </row>
-    <row r="61">
-      <c r="A61" t="inlineStr">
-        <is>
-          <t>http://www.vondel.humanities.uva.nl/ecartico/persons/47544</t>
-        </is>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A61" t="s">
+        <v>61</v>
       </c>
       <c r="B61">
         <v>0</v>
       </c>
     </row>
-    <row r="62">
-      <c r="A62" t="inlineStr">
-        <is>
-          <t>http://www.vondel.humanities.uva.nl/ecartico/persons/47549</t>
-        </is>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A62" t="s">
+        <v>62</v>
       </c>
       <c r="B62">
         <v>0</v>
       </c>
     </row>
-    <row r="63">
-      <c r="A63" t="inlineStr">
-        <is>
-          <t>http://www.vondel.humanities.uva.nl/ecartico/persons/4755</t>
-        </is>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A63" t="s">
+        <v>63</v>
       </c>
       <c r="B63">
         <v>0</v>
       </c>
     </row>
-    <row r="64">
-      <c r="A64" t="inlineStr">
-        <is>
-          <t>http://www.vondel.humanities.uva.nl/ecartico/persons/47550</t>
-        </is>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A64" t="s">
+        <v>64</v>
       </c>
       <c r="B64">
         <v>0</v>
       </c>
     </row>
-    <row r="65">
-      <c r="A65" t="inlineStr">
-        <is>
-          <t>http://www.vondel.humanities.uva.nl/ecartico/persons/47553</t>
-        </is>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A65" t="s">
+        <v>65</v>
       </c>
       <c r="B65">
         <v>0</v>
       </c>
     </row>
-    <row r="66">
-      <c r="A66" t="inlineStr">
-        <is>
-          <t>http://www.vondel.humanities.uva.nl/ecartico/persons/47568</t>
-        </is>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A66" t="s">
+        <v>66</v>
       </c>
       <c r="B66">
         <v>0</v>
       </c>
     </row>
-    <row r="67">
-      <c r="A67" t="inlineStr">
-        <is>
-          <t>http://www.vondel.humanities.uva.nl/ecartico/persons/4757</t>
-        </is>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A67" t="s">
+        <v>67</v>
       </c>
       <c r="B67">
         <v>0</v>
       </c>
     </row>
-    <row r="68">
-      <c r="A68" t="inlineStr">
-        <is>
-          <t>http://www.vondel.humanities.uva.nl/ecartico/persons/47577</t>
-        </is>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A68" t="s">
+        <v>68</v>
       </c>
       <c r="B68">
         <v>3</v>
       </c>
     </row>
-    <row r="69">
-      <c r="A69" t="inlineStr">
-        <is>
-          <t>http://www.vondel.humanities.uva.nl/ecartico/persons/4758</t>
-        </is>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A69" t="s">
+        <v>69</v>
       </c>
       <c r="B69">
         <v>0</v>
       </c>
     </row>
-    <row r="70">
-      <c r="A70" t="inlineStr">
-        <is>
-          <t>http://www.vondel.humanities.uva.nl/ecartico/persons/47589</t>
-        </is>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A70" t="s">
+        <v>70</v>
       </c>
       <c r="B70">
         <v>0</v>
       </c>
     </row>
-    <row r="71">
-      <c r="A71" t="inlineStr">
-        <is>
-          <t>http://www.vondel.humanities.uva.nl/ecartico/persons/4760</t>
-        </is>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A71" t="s">
+        <v>71</v>
       </c>
       <c r="B71">
         <v>4</v>
       </c>
     </row>
-    <row r="72">
-      <c r="A72" t="inlineStr">
-        <is>
-          <t>http://www.vondel.humanities.uva.nl/ecartico/persons/47608</t>
-        </is>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A72" t="s">
+        <v>72</v>
       </c>
       <c r="B72">
         <v>0</v>
       </c>
     </row>
-    <row r="73">
-      <c r="A73" t="inlineStr">
-        <is>
-          <t>http://www.vondel.humanities.uva.nl/ecartico/persons/47609</t>
-        </is>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A73" t="s">
+        <v>73</v>
       </c>
       <c r="B73">
         <v>0</v>
       </c>
     </row>
-    <row r="74">
-      <c r="A74" t="inlineStr">
-        <is>
-          <t>http://www.vondel.humanities.uva.nl/ecartico/persons/4761</t>
-        </is>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A74" t="s">
+        <v>74</v>
       </c>
       <c r="B74">
         <v>0</v>
       </c>
     </row>
-    <row r="75">
-      <c r="A75" t="inlineStr">
-        <is>
-          <t>http://www.vondel.humanities.uva.nl/ecartico/persons/47614</t>
-        </is>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A75" t="s">
+        <v>75</v>
       </c>
       <c r="B75">
         <v>1</v>
       </c>
     </row>
-    <row r="76">
-      <c r="A76" t="inlineStr">
-        <is>
-          <t>http://www.vondel.humanities.uva.nl/ecartico/persons/4762</t>
-        </is>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A76" t="s">
+        <v>76</v>
       </c>
       <c r="B76">
         <v>0</v>
       </c>
     </row>
-    <row r="77">
-      <c r="A77" t="inlineStr">
-        <is>
-          <t>http://www.vondel.humanities.uva.nl/ecartico/persons/4763</t>
-        </is>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A77" t="s">
+        <v>77</v>
       </c>
       <c r="B77">
         <v>0</v>
       </c>
     </row>
-    <row r="78">
-      <c r="A78" t="inlineStr">
-        <is>
-          <t>http://www.vondel.humanities.uva.nl/ecartico/persons/4764</t>
-        </is>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A78" t="s">
+        <v>78</v>
       </c>
       <c r="B78">
         <v>0</v>
       </c>
     </row>
-    <row r="79">
-      <c r="A79" t="inlineStr">
-        <is>
-          <t>http://www.vondel.humanities.uva.nl/ecartico/persons/4765</t>
-        </is>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A79" t="s">
+        <v>79</v>
       </c>
       <c r="B79">
         <v>0</v>
       </c>
     </row>
-    <row r="80">
-      <c r="A80" t="inlineStr">
-        <is>
-          <t>http://www.vondel.humanities.uva.nl/ecartico/persons/47658</t>
-        </is>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A80" t="s">
+        <v>80</v>
       </c>
       <c r="B80">
         <v>0</v>
       </c>
     </row>
-    <row r="81">
-      <c r="A81" t="inlineStr">
-        <is>
-          <t>http://www.vondel.humanities.uva.nl/ecartico/persons/47664</t>
-        </is>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A81" t="s">
+        <v>81</v>
       </c>
       <c r="B81">
         <v>0</v>
       </c>
     </row>
-    <row r="82">
-      <c r="A82" t="inlineStr">
-        <is>
-          <t>http://www.vondel.humanities.uva.nl/ecartico/persons/47665</t>
-        </is>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A82" t="s">
+        <v>82</v>
       </c>
       <c r="B82">
         <v>0</v>
       </c>
     </row>
-    <row r="83">
-      <c r="A83" t="inlineStr">
-        <is>
-          <t>http://www.vondel.humanities.uva.nl/ecartico/persons/47667</t>
-        </is>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A83" t="s">
+        <v>83</v>
       </c>
       <c r="B83">
         <v>0</v>
       </c>
     </row>
-    <row r="84">
-      <c r="A84" t="inlineStr">
-        <is>
-          <t>http://www.vondel.humanities.uva.nl/ecartico/persons/47668</t>
-        </is>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A84" t="s">
+        <v>84</v>
       </c>
       <c r="B84">
         <v>0</v>
       </c>
     </row>
-    <row r="85">
-      <c r="A85" t="inlineStr">
-        <is>
-          <t>http://www.vondel.humanities.uva.nl/ecartico/persons/47673</t>
-        </is>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A85" t="s">
+        <v>85</v>
       </c>
       <c r="B85">
         <v>0</v>
       </c>
     </row>
-    <row r="86">
-      <c r="A86" t="inlineStr">
-        <is>
-          <t>http://www.vondel.humanities.uva.nl/ecartico/persons/47674</t>
-        </is>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A86" t="s">
+        <v>86</v>
       </c>
       <c r="B86">
         <v>0</v>
       </c>
     </row>
-    <row r="87">
-      <c r="A87" t="inlineStr">
-        <is>
-          <t>http://www.vondel.humanities.uva.nl/ecartico/persons/47675</t>
-        </is>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A87" t="s">
+        <v>87</v>
       </c>
       <c r="B87">
         <v>0</v>
       </c>
     </row>
-    <row r="88">
-      <c r="A88" t="inlineStr">
-        <is>
-          <t>http://www.vondel.humanities.uva.nl/ecartico/persons/47676</t>
-        </is>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A88" t="s">
+        <v>88</v>
       </c>
       <c r="B88">
         <v>1</v>
       </c>
     </row>
-    <row r="89">
-      <c r="A89" t="inlineStr">
-        <is>
-          <t>http://www.vondel.humanities.uva.nl/ecartico/persons/47679</t>
-        </is>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A89" t="s">
+        <v>89</v>
       </c>
       <c r="B89">
         <v>0</v>
       </c>
     </row>
-    <row r="90">
-      <c r="A90" t="inlineStr">
-        <is>
-          <t>http://www.vondel.humanities.uva.nl/ecartico/persons/47680</t>
-        </is>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A90" t="s">
+        <v>90</v>
       </c>
       <c r="B90">
         <v>0</v>
       </c>
     </row>
-    <row r="91">
-      <c r="A91" t="inlineStr">
-        <is>
-          <t>http://www.vondel.humanities.uva.nl/ecartico/persons/47684</t>
-        </is>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A91" t="s">
+        <v>91</v>
       </c>
       <c r="B91">
         <v>0</v>
       </c>
     </row>
-    <row r="92">
-      <c r="A92" t="inlineStr">
-        <is>
-          <t>http://www.vondel.humanities.uva.nl/ecartico/persons/47691</t>
-        </is>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A92" t="s">
+        <v>92</v>
       </c>
       <c r="B92">
         <v>0</v>
       </c>
     </row>
-    <row r="93">
-      <c r="A93" t="inlineStr">
-        <is>
-          <t>http://www.vondel.humanities.uva.nl/ecartico/persons/47696</t>
-        </is>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A93" t="s">
+        <v>93</v>
       </c>
       <c r="B93">
         <v>0</v>
       </c>
     </row>
-    <row r="94">
-      <c r="A94" t="inlineStr">
-        <is>
-          <t>http://www.vondel.humanities.uva.nl/ecartico/persons/477</t>
-        </is>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A94" t="s">
+        <v>94</v>
       </c>
       <c r="B94">
         <v>0</v>
       </c>
     </row>
-    <row r="95">
-      <c r="A95" t="inlineStr">
-        <is>
-          <t>http://www.vondel.humanities.uva.nl/ecartico/persons/47711</t>
-        </is>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A95" t="s">
+        <v>95</v>
       </c>
       <c r="B95">
         <v>0</v>
       </c>
     </row>
-    <row r="96">
-      <c r="A96" t="inlineStr">
-        <is>
-          <t>http://www.vondel.humanities.uva.nl/ecartico/persons/47718</t>
-        </is>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A96" t="s">
+        <v>96</v>
       </c>
       <c r="B96">
         <v>1</v>
       </c>
     </row>
-    <row r="97">
-      <c r="A97" t="inlineStr">
-        <is>
-          <t>http://www.vondel.humanities.uva.nl/ecartico/persons/47732</t>
-        </is>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A97" t="s">
+        <v>97</v>
       </c>
       <c r="B97">
         <v>0</v>
       </c>
     </row>
-    <row r="98">
-      <c r="A98" t="inlineStr">
-        <is>
-          <t>http://www.vondel.humanities.uva.nl/ecartico/persons/4774</t>
-        </is>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A98" t="s">
+        <v>98</v>
       </c>
       <c r="B98">
         <v>5</v>
       </c>
     </row>
-    <row r="99">
-      <c r="A99" t="inlineStr">
-        <is>
-          <t>http://www.vondel.humanities.uva.nl/ecartico/persons/47806</t>
-        </is>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A99" t="s">
+        <v>99</v>
       </c>
       <c r="B99">
         <v>0</v>
       </c>
     </row>
-    <row r="100">
-      <c r="A100" t="inlineStr">
-        <is>
-          <t>http://www.vondel.humanities.uva.nl/ecartico/persons/47815</t>
-        </is>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A100" t="s">
+        <v>100</v>
       </c>
       <c r="B100">
         <v>1</v>
       </c>
     </row>
-    <row r="101">
-      <c r="A101" t="inlineStr">
-        <is>
-          <t>http://www.vondel.humanities.uva.nl/ecartico/persons/47821</t>
-        </is>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A101" t="s">
+        <v>101</v>
       </c>
       <c r="B101">
         <v>0</v>
       </c>
     </row>
-    <row r="102">
-      <c r="A102" t="inlineStr">
-        <is>
-          <t>http://www.vondel.humanities.uva.nl/ecartico/persons/4783</t>
-        </is>
+    <row r="102" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A102" t="s">
+        <v>102</v>
       </c>
       <c r="B102">
         <v>0</v>
       </c>
     </row>
-    <row r="103">
-      <c r="A103" t="inlineStr">
-        <is>
-          <t>http://www.vondel.humanities.uva.nl/ecartico/persons/4784</t>
-        </is>
+    <row r="103" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A103" t="s">
+        <v>103</v>
       </c>
       <c r="B103">
         <v>2</v>
       </c>
     </row>
-    <row r="104">
-      <c r="A104" t="inlineStr">
-        <is>
-          <t>http://www.vondel.humanities.uva.nl/ecartico/persons/47859</t>
-        </is>
+    <row r="104" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A104" t="s">
+        <v>104</v>
       </c>
       <c r="B104">
         <v>0</v>
       </c>
     </row>
-    <row r="105">
-      <c r="A105" t="inlineStr">
-        <is>
-          <t>http://www.vondel.humanities.uva.nl/ecartico/persons/47865</t>
-        </is>
+    <row r="105" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A105" t="s">
+        <v>105</v>
       </c>
       <c r="B105">
         <v>0</v>
       </c>
     </row>
-    <row r="106">
-      <c r="A106" t="inlineStr">
-        <is>
-          <t>http://www.vondel.humanities.uva.nl/ecartico/persons/4787</t>
-        </is>
+    <row r="106" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A106" t="s">
+        <v>106</v>
       </c>
       <c r="B106">
         <v>0</v>
       </c>
     </row>
-    <row r="107">
-      <c r="A107" t="inlineStr">
-        <is>
-          <t>http://www.vondel.humanities.uva.nl/ecartico/persons/47931</t>
-        </is>
+    <row r="107" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A107" t="s">
+        <v>107</v>
       </c>
       <c r="B107">
         <v>0</v>
       </c>
     </row>
-    <row r="108">
-      <c r="A108" t="inlineStr">
-        <is>
-          <t>http://www.vondel.humanities.uva.nl/ecartico/persons/47967</t>
-        </is>
+    <row r="108" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A108" t="s">
+        <v>108</v>
       </c>
       <c r="B108">
         <v>0</v>
       </c>
     </row>
-    <row r="109">
-      <c r="A109" t="inlineStr">
-        <is>
-          <t>http://www.vondel.humanities.uva.nl/ecartico/persons/48</t>
-        </is>
+    <row r="109" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A109" t="s">
+        <v>109</v>
       </c>
       <c r="B109">
         <v>0</v>
       </c>
     </row>
-    <row r="110">
-      <c r="A110" t="inlineStr">
-        <is>
-          <t>http://www.vondel.humanities.uva.nl/ecartico/persons/48075</t>
-        </is>
+    <row r="110" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A110" t="s">
+        <v>110</v>
       </c>
       <c r="B110">
         <v>0</v>
       </c>
     </row>
-    <row r="111">
-      <c r="A111" t="inlineStr">
-        <is>
-          <t>http://www.vondel.humanities.uva.nl/ecartico/persons/48153</t>
-        </is>
+    <row r="111" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A111" t="s">
+        <v>111</v>
       </c>
       <c r="B111">
         <v>0</v>
       </c>
     </row>
-    <row r="112">
-      <c r="A112" t="inlineStr">
-        <is>
-          <t>http://www.vondel.humanities.uva.nl/ecartico/persons/48157</t>
-        </is>
+    <row r="112" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A112" t="s">
+        <v>112</v>
       </c>
       <c r="B112">
         <v>0</v>
       </c>
     </row>
-    <row r="113">
-      <c r="A113" t="inlineStr">
-        <is>
-          <t>http://www.vondel.humanities.uva.nl/ecartico/persons/48167</t>
-        </is>
+    <row r="113" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A113" t="s">
+        <v>113</v>
       </c>
       <c r="B113">
         <v>0</v>
       </c>
     </row>
-    <row r="114">
-      <c r="A114" t="inlineStr">
-        <is>
-          <t>http://www.vondel.humanities.uva.nl/ecartico/persons/48169</t>
-        </is>
+    <row r="114" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A114" t="s">
+        <v>114</v>
       </c>
       <c r="B114">
         <v>0</v>
       </c>
     </row>
-    <row r="115">
-      <c r="A115" t="inlineStr">
-        <is>
-          <t>http://www.vondel.humanities.uva.nl/ecartico/persons/48179</t>
-        </is>
+    <row r="115" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A115" t="s">
+        <v>115</v>
       </c>
       <c r="B115">
         <v>0</v>
       </c>
     </row>
-    <row r="116">
-      <c r="A116" t="inlineStr">
-        <is>
-          <t>http://www.vondel.humanities.uva.nl/ecartico/persons/482</t>
-        </is>
+    <row r="116" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A116" t="s">
+        <v>116</v>
       </c>
       <c r="B116">
         <v>0</v>
       </c>
     </row>
-    <row r="117">
-      <c r="A117" t="inlineStr">
-        <is>
-          <t>http://www.vondel.humanities.uva.nl/ecartico/persons/48205</t>
-        </is>
+    <row r="117" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A117" t="s">
+        <v>117</v>
       </c>
       <c r="B117">
         <v>0</v>
       </c>
     </row>
-    <row r="118">
-      <c r="A118" t="inlineStr">
-        <is>
-          <t>http://www.vondel.humanities.uva.nl/ecartico/persons/48213</t>
-        </is>
+    <row r="118" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A118" t="s">
+        <v>118</v>
       </c>
       <c r="B118">
         <v>0</v>
